--- a/Basketball_dataset.xlsx
+++ b/Basketball_dataset.xlsx
@@ -48,7 +48,7 @@
     <sheet state="visible" name="New Mexico (42)" sheetId="43" r:id="rId46"/>
     <sheet state="visible" name="Oregon (43)" sheetId="44" r:id="rId47"/>
     <sheet state="visible" name="Colorado St (44)" sheetId="45" r:id="rId48"/>
-    <sheet state="visible" name="NCState(45)" sheetId="46" r:id="rId49"/>
+    <sheet state="visible" name="NC State(45)" sheetId="46" r:id="rId49"/>
     <sheet state="visible" name="Duquesne(46)" sheetId="47" r:id="rId50"/>
     <sheet state="visible" name="Grand Canyon(47)" sheetId="48" r:id="rId51"/>
     <sheet state="visible" name="James Madison(48)" sheetId="49" r:id="rId52"/>

--- a/Basketball_dataset.xlsx
+++ b/Basketball_dataset.xlsx
@@ -11,7 +11,7 @@
     <sheet state="visible" name="Tennessee(5)" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Arizona(6)" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Marquette(7)" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="IowaSt(8)" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Iowa State(8)" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Baylor(9)" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="Creighton(10)" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="Kentucky(11)" sheetId="12" r:id="rId15"/>
@@ -23,7 +23,7 @@
     <sheet state="visible" name="BYU(17)" sheetId="18" r:id="rId21"/>
     <sheet state="visible" name="San Diego State(18)" sheetId="19" r:id="rId22"/>
     <sheet state="visible" name="Wisconsin(19)" sheetId="20" r:id="rId23"/>
-    <sheet state="visible" name="Saint Marys(CA)(20)" sheetId="21" r:id="rId24"/>
+    <sheet state="visible" name="Saint Mary" sheetId="21" r:id="rId24"/>
     <sheet state="visible" name="Gonzaga(21)" sheetId="22" r:id="rId25"/>
     <sheet state="visible" name="Clemson(22)" sheetId="23" r:id="rId26"/>
     <sheet state="visible" name="Texas Tech(23)" sheetId="24" r:id="rId27"/>
@@ -57,7 +57,7 @@
     <sheet state="visible" name="Vermont(51)" sheetId="52" r:id="rId55"/>
     <sheet state="visible" name="Yale(52)" sheetId="53" r:id="rId56"/>
     <sheet state="visible" name="Samford(53)" sheetId="54" r:id="rId57"/>
-    <sheet state="visible" name="Col. of Charleston(54)" sheetId="55" r:id="rId58"/>
+    <sheet state="visible" name="College of Charleston" sheetId="55" r:id="rId58"/>
     <sheet state="visible" name="Oakland(55)" sheetId="56" r:id="rId59"/>
     <sheet state="visible" name="Akron(56)" sheetId="57" r:id="rId60"/>
     <sheet state="visible" name="Morehead State(57)" sheetId="58" r:id="rId61"/>
@@ -65,7 +65,7 @@
     <sheet state="visible" name="Long Beach St(59)" sheetId="60" r:id="rId63"/>
     <sheet state="visible" name="Western Ky(60)" sheetId="61" r:id="rId64"/>
     <sheet state="visible" name="South Dakota St(61)" sheetId="62" r:id="rId65"/>
-    <sheet state="visible" name="Saint Peters(62)" sheetId="63" r:id="rId66"/>
+    <sheet state="visible" name="Saint Peter(62)" sheetId="63" r:id="rId66"/>
     <sheet state="visible" name="Longwood (63)" sheetId="64" r:id="rId67"/>
     <sheet state="visible" name="Stetson(64)" sheetId="65" r:id="rId68"/>
     <sheet state="visible" name="Montana State(65)" sheetId="66" r:id="rId69"/>
